--- a/output/ne_closure_summary.xlsx
+++ b/output/ne_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,27 +687,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20222023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>77-0001-000</t>
+          <t>89-0001-000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>77-0001-300</t>
+          <t>89-0001-002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SARPY CO COOP HEAD START-BELLEVUE</t>
+          <t>BLAIR NORTH ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BELLEVUE PUBLIC SCHOOLS</t>
+          <t>BLAIR COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -721,33 +721,33 @@
         </is>
       </c>
       <c r="I9">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20222023</t>
+          <t>20172018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>89-0001-000</t>
+          <t>08-0051-000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>89-0001-002</t>
+          <t>08-0051-005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BLAIR NORTH ELEMENTARY SCHOOL</t>
+          <t>BOYD COUNTY MIDDLE SCHOOL (LYNCH)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BLAIR COMMUNITY SCHOOLS</t>
+          <t>BOYD COUNTY SCHOOLS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="I10">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11">
@@ -772,22 +772,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06-0001-000</t>
+          <t>08-0051-000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06-0001-006</t>
+          <t>08-0051-006</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ABC PRESCHOOL</t>
+          <t>BOYD COUNTY HIGH SCHOOL (LYNCH)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BOONE CENTRAL SCHOOLS</t>
+          <t>BOYD COUNTY SCHOOLS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08-0051-000</t>
+          <t>78-0107-000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08-0051-005</t>
+          <t>78-0107-003</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BOYD COUNTY MIDDLE SCHOOL (LYNCH)</t>
+          <t>CEDAR BLUFFS MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BOYD COUNTY SCHOOLS</t>
+          <t>CEDAR BLUFFS PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -847,27 +847,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08-0051-000</t>
+          <t>15-0010-000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-0051-006</t>
+          <t>15-0010-003</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BOYD COUNTY HIGH SCHOOL (LYNCH)</t>
+          <t>CHASE COUNTY MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOYD COUNTY SCHOOLS</t>
+          <t>CHASE COUNTY SCHOOLS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,33 +881,33 @@
         </is>
       </c>
       <c r="I13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20212022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>78-0107-000</t>
+          <t>29-0117-000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>78-0107-003</t>
+          <t>29-0117-004</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CEDAR BLUFFS MIDDLE SCHOOL</t>
+          <t>STRATTON ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CEDAR BLUFFS PUBLIC SCHOOLS</t>
+          <t>DUNDY CO STRATTON PUBLIC SCHS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,33 +921,33 @@
         </is>
       </c>
       <c r="I14">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>78-0107-000</t>
+          <t>45-0029-000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>78-0107-004</t>
+          <t>45-0029-001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CEDAR BLUFFS PRESCHOOL</t>
+          <t>EWING HIGH SCHOOL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CEDAR BLUFFS PUBLIC SCHOOLS</t>
+          <t>EWING PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -961,33 +961,33 @@
         </is>
       </c>
       <c r="I15">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20202021</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39-0060-000</t>
+          <t>45-0029-000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>39-0060-004</t>
+          <t>45-0029-002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CENTRAL VALLEY PK - WOLBACH</t>
+          <t>EWING ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CENTRAL VALLEY PUBLIC SCHOOLS</t>
+          <t>EWING PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1001,33 +1001,33 @@
         </is>
       </c>
       <c r="I16">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15-0010-000</t>
+          <t>30-0001-000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15-0010-003</t>
+          <t>30-0001-004</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CHASE COUNTY MIDDLE SCHOOL</t>
+          <t>EXETER-MILLIGAN ELEM-MILLIGAN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CHASE COUNTY SCHOOLS</t>
+          <t>EXETER-MILLIGAN PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1041,33 +1041,33 @@
         </is>
       </c>
       <c r="I17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>76-0044-000</t>
+          <t>14-0008-000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>76-0044-003</t>
+          <t>14-0008-003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DORCHESTER PRESCHOOL</t>
+          <t>HARTINGTON-NEWCASTLE ELEM AT NEWCASTLE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DORCHESTER PUBLIC SCHOOL</t>
+          <t>HARTINGTON NEWCASTLE PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1081,33 +1081,33 @@
         </is>
       </c>
       <c r="I18">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20212022</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29-0117-000</t>
+          <t>72-0075-000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29-0117-004</t>
+          <t>72-0075-004</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STRATTON ELEMENTARY SCHOOL</t>
+          <t>HIGH PLAINS ELEMENTARY/POLK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DUNDY CO STRATTON PUBLIC SCHS</t>
+          <t>HIGH PLAINS COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="I19">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28-0010-000</t>
+          <t>72-0075-000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28-0010-010</t>
+          <t>72-0075-005</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ELKHORN B-3 EARLY EDUCATION CENTER</t>
+          <t>HIGH PLAINS COMMUNITY MS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELKHORN PUBLIC SCHOOLS</t>
+          <t>HIGH PLAINS COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="I20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21">
@@ -1172,22 +1172,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28-0010-000</t>
+          <t>52-0100-000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28-0010-013</t>
+          <t>52-0100-002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WEST DODGE STATION EARLY ED CENTER</t>
+          <t>PLEASANT VIEW SCHOOL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELKHORN PUBLIC SCHOOLS</t>
+          <t>KEYA PAHA COUNTY SCHOOLS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28-0010-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28-0010-019</t>
+          <t>02-2001-010</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WESTRIDGE EARLY ED CENTER</t>
+          <t>VERDIGRE MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELKHORN PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28-0010-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28-0010-301</t>
+          <t>02-2001-011</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WEST BAY EARLY ED CENTER</t>
+          <t>CLEARWATER MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELKHORN PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1292,22 +1292,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28-0010-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28-0010-302</t>
+          <t>02-2001-012</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ELKHORN ARBOR VIEW EARLY ED CENTER</t>
+          <t>ORCHARD MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELKHORN PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1332,22 +1332,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45-0029-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45-0029-001</t>
+          <t>02-2001-001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>EWING HIGH SCHOOL</t>
+          <t>CLEARWATER HIGH SCHOOL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EWING PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1372,22 +1372,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>45-0029-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45-0029-002</t>
+          <t>02-2001-002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EWING ELEMENTARY SCHOOL</t>
+          <t>CLEARWATER ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EWING PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1407,27 +1407,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20202021</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30-0001-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30-0001-004</t>
+          <t>02-2001-003</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EXETER-MILLIGAN ELEM-MILLIGAN</t>
+          <t>ORCHARD HIGH SCHOOL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EXETER-MILLIGAN PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1441,33 +1441,33 @@
         </is>
       </c>
       <c r="I27">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20232024</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24-0020-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24-0020-006</t>
+          <t>02-2001-004</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWEDE PRESCHOOL ACADEMY</t>
+          <t>ORCHARD ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GOTHENBURG PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1481,33 +1481,33 @@
         </is>
       </c>
       <c r="I28">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>41-0091-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>41-0091-003</t>
+          <t>02-2001-006</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HAMPTON PRESCHOOL</t>
+          <t>VERDIGRE ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HAMPTON PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1521,33 +1521,33 @@
         </is>
       </c>
       <c r="I29">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20202021</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14-0008-000</t>
+          <t>02-2001-000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14-0008-003</t>
+          <t>02-2001-009</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HARTINGTON-NEWCASTLE ELEM AT NEWCASTLE</t>
+          <t>VERDIGRE HIGH SCHOOL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HARTINGTON NEWCASTLE PUBLIC SCHOOLS</t>
+          <t>NEBRASKA UNIFIED DISTRICT 1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1561,33 +1561,33 @@
         </is>
       </c>
       <c r="I30">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>72-0075-000</t>
+          <t>56-0001-000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>72-0075-004</t>
+          <t>56-0001-012</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HIGH PLAINS ELEMENTARY/POLK</t>
+          <t>OSGOOD ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>HIGH PLAINS COMMUNITY SCHOOLS</t>
+          <t>NORTH PLATTE PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1601,33 +1601,33 @@
         </is>
       </c>
       <c r="I31">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>72-0075-000</t>
+          <t>40-0082-000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>72-0075-005</t>
+          <t>40-0082-005</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HIGH PLAINS COMMUNITY MS</t>
+          <t>CHAPMAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HIGH PLAINS COMMUNITY SCHOOLS</t>
+          <t>NORTHWEST PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="I32">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="33">
@@ -1652,22 +1652,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>52-0100-000</t>
+          <t>11-0014-000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>52-0100-002</t>
+          <t>11-0014-002</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PLEASANT VIEW SCHOOL</t>
+          <t>OAKLAND CRAIG JUNIOR HIGH</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KEYA PAHA COUNTY SCHOOLS</t>
+          <t>OAKLAND CRAIG PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1687,27 +1687,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20172018</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55-0001-000</t>
+          <t>75-0100-000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>55-0001-080</t>
+          <t>75-0100-005</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PACT</t>
+          <t>ROSE SCHOOL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LINCOLN PUBLIC SCHOOLS</t>
+          <t>ROCK COUNTY PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1721,33 +1721,33 @@
         </is>
       </c>
       <c r="I34">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20202021</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55-0001-000</t>
+          <t>75-0100-000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>55-0001-305</t>
+          <t>75-0100-003</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INFANT TODDLER AT LINCOLN NORTH STAR HIGH SCHOOL</t>
+          <t>PONY LAKE SCHOOL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LINCOLN PUBLIC SCHOOLS</t>
+          <t>ROCK COUNTY PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1761,33 +1761,33 @@
         </is>
       </c>
       <c r="I35">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20212022</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>50-0503-000</t>
+          <t>19-0123-000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>50-0503-006</t>
+          <t>19-0123-002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MINDEN PUBLIC SCH PRE-SCHOOL</t>
+          <t>RICHLAND ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MINDEN PUBLIC SCHOOLS</t>
+          <t>SCHUYLER COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1801,33 +1801,33 @@
         </is>
       </c>
       <c r="I36">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>19-0123-000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>02-2001-010</t>
+          <t>19-0123-011</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VERDIGRE MIDDLE SCHOOL</t>
+          <t>DUAL LANGUAGE SCHOOL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SCHUYLER COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1841,33 +1841,33 @@
         </is>
       </c>
       <c r="I37">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>17-0001-000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>02-2001-011</t>
+          <t>17-0001-004</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CLEARWATER MIDDLE SCHOOL</t>
+          <t>NORTH WARD ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SIDNEY PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1881,33 +1881,33 @@
         </is>
       </c>
       <c r="I38">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20222023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02-2001-012</t>
+          <t>65-2005-010</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ORCHARD MIDDLE SCHOOL</t>
+          <t>CLAY CO LEARNING CENTER - FAIRFIELD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1921,33 +1921,33 @@
         </is>
       </c>
       <c r="I39">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20222023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02-2001-001</t>
+          <t>65-2005-011</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CLEARWATER HIGH SCHOOL</t>
+          <t>LAWRENCE EARLY LEARNING CENTER</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1961,33 +1961,33 @@
         </is>
       </c>
       <c r="I40">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>02-2001-002</t>
+          <t>65-2005-001</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CLEARWATER ELEMENTARY SCHOOL</t>
+          <t>SANDY CREEK HIGH SCHOOL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2001,33 +2001,33 @@
         </is>
       </c>
       <c r="I41">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02-2001-003</t>
+          <t>65-2005-002</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ORCHARD HIGH SCHOOL</t>
+          <t>SANDY CREEK ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2041,33 +2041,33 @@
         </is>
       </c>
       <c r="I42">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>02-2001-004</t>
+          <t>65-2005-006</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ORCHARD ELEMENTARY SCHOOL</t>
+          <t>LAWRENCE/NELSON HIGH SCH</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2081,33 +2081,33 @@
         </is>
       </c>
       <c r="I43">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>02-2001-006</t>
+          <t>65-2005-007</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VERDIGRE ELEMENTARY SCHOOL</t>
+          <t>LAWRENCE/NELSON ELEMENTARY SCH</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2121,33 +2121,33 @@
         </is>
       </c>
       <c r="I44">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20232024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>02-2001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>02-2001-009</t>
+          <t>65-2005-012</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VERDIGRE HIGH SCHOOL</t>
+          <t>SANDY CREEK MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NEBRASKA UNIFIED DISTRICT 1</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="I45">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="46">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56-0001-000</t>
+          <t>65-2005-000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>56-0001-012</t>
+          <t>65-2005-013</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OSGOOD ELEMENTARY SCHOOL</t>
+          <t>LAWRENCE - NELSON MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NORTH PLATTE PUBLIC SCHOOLS</t>
+          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2207,27 +2207,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40-0082-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40-0082-006</t>
+          <t>02-0115-001</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LOCKWOOD PRESCHOOL</t>
+          <t>SUMMERLAND HIGH SCHOOL AT CLEARWATER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NORTHWEST PUBLIC SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2240,34 +2240,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I47">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>40-0082-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>40-0082-005</t>
+          <t>02-0115-002</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CHAPMAN ELEMENTARY SCHOOL</t>
+          <t>SUMMERLAND ELEM SCH AT CLEARWATER</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NORTHWEST PUBLIC SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2280,34 +2285,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11-0014-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11-0014-002</t>
+          <t>02-0115-003</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OAKLAND CRAIG JUNIOR HIGH</t>
+          <t>SUMMERLAND HIGH SCHOOL AT ORCHARD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OAKLAND CRAIG PUBLIC SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2320,34 +2330,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I49">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20182019</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>77-0027-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>77-0027-300</t>
+          <t>02-0115-004</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SARPY CO COOP HEAD START-PAPILLION-LA VISTA</t>
+          <t>SUMMERLAND ELEM SCH AT ORCHARD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PAPILLION LA VISTA COMMUNITY SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2360,34 +2375,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I50">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20172018</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>75-0100-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>75-0100-005</t>
+          <t>02-0115-005</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ROSE SCHOOL</t>
+          <t>SUMMERLAND HIGH SCH AT EWING</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ROCK COUNTY PUBLIC SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2400,34 +2420,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I51">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20192020</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>75-0100-000</t>
+          <t>02-0115-000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>75-0100-003</t>
+          <t>02-0115-006</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PONY LAKE SCHOOL</t>
+          <t>SUMMERLAND ELEM SCH AT EWING</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ROCK COUNTY PUBLIC SCHOOLS</t>
+          <t>SUMMERLAND PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,34 +2465,39 @@
           <t>x</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I52">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20232024</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19-0123-000</t>
+          <t>63-0030-000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19-0123-002</t>
+          <t>63-0030-004</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RICHLAND ELEMENTARY SCHOOL</t>
+          <t>TWIN RIVER ELEM-SILVER CREEK</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SCHUYLER COMMUNITY SCHOOLS</t>
+          <t>TWIN RIVER PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2481,33 +2511,33 @@
         </is>
       </c>
       <c r="I53">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20232024</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19-0123-000</t>
+          <t>16-0006-000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>19-0123-011</t>
+          <t>16-0006-007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DUAL LANGUAGE SCHOOL</t>
+          <t>WOOD LAKE SCHOOL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SCHUYLER COMMUNITY SCHOOLS</t>
+          <t>VALENTINE COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2521,33 +2551,33 @@
         </is>
       </c>
       <c r="I54">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20232024</t>
+          <t>20182019</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17-0001-000</t>
+          <t>16-0006-000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17-0001-004</t>
+          <t>16-0006-014</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NORTH WARD ELEMENTARY SCHOOL</t>
+          <t>GOOSE CREEK SCHOOL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SIDNEY PUBLIC SCHOOLS</t>
+          <t>VALENTINE COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2561,33 +2591,33 @@
         </is>
       </c>
       <c r="I55">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20222023</t>
+          <t>20202021</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>65-2005-000</t>
+          <t>16-0006-000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>65-2005-010</t>
+          <t>16-0006-006</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CLAY CO LEARNING CENTER - FAIRFIELD</t>
+          <t>KENNEDY SCHOOL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
+          <t>VALENTINE COMMUNITY SCHOOLS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2601,33 +2631,33 @@
         </is>
       </c>
       <c r="I56">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20222023</t>
+          <t>20172018</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>65-2005-000</t>
+          <t>13-0022-000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>65-2005-011</t>
+          <t>13-0022-004</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LAWRENCE EARLY LEARNING CENTER</t>
+          <t>WEEPING WATER MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
+          <t>WEEPING WATER PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2641,33 +2671,33 @@
         </is>
       </c>
       <c r="I57">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20232024</t>
+          <t>20192020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>65-2005-000</t>
+          <t>45-0239-000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>65-2005-001</t>
+          <t>45-0239-003</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SANDY CREEK HIGH SCHOOL</t>
+          <t>UNION ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
+          <t>WEST HOLT PUBLIC SCHOOLS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2681,881 +2711,6 @@
         </is>
       </c>
       <c r="I58">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>20232024</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>65-2005-000</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>65-2005-002</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>SANDY CREEK ELEMENTARY SCHOOL</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I59">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>20232024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>65-2005-000</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>65-2005-006</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>LAWRENCE/NELSON HIGH SCH</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I60">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>20232024</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>65-2005-000</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>65-2005-007</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>LAWRENCE/NELSON ELEMENTARY SCH</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I61">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>20232024</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>65-2005-000</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>65-2005-012</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>SANDY CREEK MIDDLE SCHOOL</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I62">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>20232024</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>65-2005-000</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>65-2005-013</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>LAWRENCE - NELSON MIDDLE SCHOOL</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>SOUTH CENTRAL NEBRASKA UNIFIED 5</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I63">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>20182019</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>34-0001-000</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>34-0001-004</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>WYMORE PRESCHOOL</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>SOUTHERN SCHOOL DISTRICT 1</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I64">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>20182019</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>77-0046-000</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>77-0046-300</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>SARPY CO COOP HEAD START-SPRINGFIELD PLATTEVIEW</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>SPRINGFIELD PLATTEVIEW COMMUNITY SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I65">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>20172018</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>47-0001-000</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>47-0001-001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>ST PAUL HIGH SCHOOL</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ST PAUL PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I66">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>20172018</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>47-0001-000</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>47-0001-004</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ST PAUL JUNIOR HIGH SCHOOL</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ST PAUL PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I67">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>02-0115-001</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SUMMERLAND HIGH SCHOOL AT CLEARWATER</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I68">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>02-0115-002</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SUMMERLAND ELEM SCH AT CLEARWATER</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I69">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>02-0115-003</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>SUMMERLAND HIGH SCHOOL AT ORCHARD</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I70">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>02-0115-004</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>SUMMERLAND ELEM SCH AT ORCHARD</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I71">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>02-0115-005</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SUMMERLAND HIGH SCH AT EWING</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I72">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>02-0115-000</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>02-0115-006</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>SUMMERLAND ELEM SCH AT EWING</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SUMMERLAND PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I73">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>20182019</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>63-0030-000</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>63-0030-004</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>TWIN RIVER ELEM-SILVER CREEK</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>TWIN RIVER PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I74">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>20182019</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>16-0006-000</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>16-0006-007</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>WOOD LAKE SCHOOL</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>VALENTINE COMMUNITY SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I75">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>20182019</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>16-0006-000</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>16-0006-014</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GOOSE CREEK SCHOOL</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>VALENTINE COMMUNITY SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I76">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>20202021</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>16-0006-000</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>16-0006-006</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>KENNEDY SCHOOL</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>VALENTINE COMMUNITY SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I77">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20172018</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>13-0022-000</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>13-0022-004</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>WEEPING WATER MIDDLE SCHOOL</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>WEEPING WATER PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I78">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20192020</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>45-0239-000</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>45-0239-003</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>UNION ELEMENTARY SCHOOL</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>WEST HOLT PUBLIC SCHOOLS</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>PUBLIC</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I79">
         <v>2020</v>
       </c>
     </row>
